--- a/application/data/DataPool.xlsx
+++ b/application/data/DataPool.xlsx
@@ -71,7 +71,7 @@
     <t>srimukhi@1994</t>
   </si>
   <si>
-    <t>Oreo</t>
+    <t>65-inch TV</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
